--- a/Unity/Assets/Config/Excel/Datas/BattleDropConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/BattleDropConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C41C6-CC6D-4A7F-8A57-720BE2E99EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BCD2E1-C3DB-4058-B808-A309332027FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="6915" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
